--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/123/incorrect_predictions_123.xlsx
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Compass Before Takeoff</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37-39</t>
+          <t>36-39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/123/incorrect_predictions_123.xlsx
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Calibrate Compass Before Takeoff</t>
+          <t>Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36-39</t>
+          <t>37-39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
